--- a/biology/Histoire de la zoologie et de la botanique/Julius_von_Wiesner/Julius_von_Wiesner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Julius_von_Wiesner/Julius_von_Wiesner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Ritter von Wiesner est un botaniste spécialiste de la physiologie et de l’anatomie végétale austro-hongrois, né le 20 janvier 1838 à Tschechen, près de Wishau en margraviat de Moravie et mort le 9 octobre 1916 à Vienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il enseigne, à partir de 1870, l’école forestière de Mariabrunn, puis de 1873 à 1909 à l’université de Vienne. Il dirige l’institut de physiologie végétale de l’université, le premier du genre. Il fait des voyages scientifiques en Égypte, en Inde, à Java, à Sumatra, en Arctique et en Amérique du Nord.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1873 : Die Rohstoffe des Pflanzenreichs (réédité en deux volumes en 1914-1918) ;
 1877 : Die Entstehung des Chlorophylls in der Pflanze ;
@@ -578,7 +594,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Österreich-Lexikon</t>
         </is>
